--- a/Docs/turtle commands.xlsx
+++ b/Docs/turtle commands.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="402" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="402"/>
   </bookViews>
   <sheets>
     <sheet name="TurtleMethods" sheetId="1" r:id="rId1"/>
@@ -811,159 +811,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>subclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgpic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearscreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screensize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setworldcoordinates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animation control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tracer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using screen events</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onkeyrelease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onkeypress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onscreenclick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ontimer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainloop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings and special methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colormode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getcanvas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getshapes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_shape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addshape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turtles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textinput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numinput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Methods specific to Screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exitonclick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Turtle Methods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subclass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Methods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subclass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Window control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgcolor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgpic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clearscreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>screensize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setworldcoordinates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Animation control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tracer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Using screen events</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>listen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onkeyrelease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onkeypress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>onscreenclick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ontimer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainloop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Settings and special methods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>colormode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getcanvas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getshapes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register_shape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addshape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turtles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input methods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>textinput</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numinput</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Methods specific to Screen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exitonclick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,7 +971,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,6 +1007,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1016,7 +1025,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1039,32 +1048,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1075,25 +1067,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1392,942 +1375,1055 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="59.25" customWidth="1"/>
+    <col min="6" max="6" width="80.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90.75" customHeight="1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="135.75" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1">
-      <c r="A10" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="81.75" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="C13" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="51" customHeight="1">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="87" customHeight="1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" ht="102" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="142.5" customHeight="1">
-      <c r="A20" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="14.25">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="14.25">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>134</v>
       </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="14.25">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="71.25">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="42.75">
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="14.25">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="14.25">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="14.25">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15">
-      <c r="A32" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="40.5">
+      <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="14.25">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="4" t="s">
         <v>127</v>
       </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="14.25">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="14.25">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="42.75">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="28.5">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="57">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="42.75">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15">
-      <c r="A42" t="s">
+    <row r="42" spans="1:6" ht="27">
+      <c r="A42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="14.25">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.25">
-      <c r="A45" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" ht="54">
+      <c r="A45" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E45" t="s">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:6" ht="54">
+      <c r="A46" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E46" t="s">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" ht="14.25">
-      <c r="C48" s="7" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>117</v>
       </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" ht="14.25">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" ht="14.25">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" ht="14.25">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" ht="14.25">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" ht="14.25">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="4" t="s">
         <v>121</v>
       </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" ht="14.25">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" ht="14.25">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="202.5">
-      <c r="C58" s="6" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" ht="157.5" customHeight="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" t="s">
+      <c r="D58" s="4"/>
+      <c r="E58" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25">
-      <c r="C59" s="7" t="s">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25">
-      <c r="A60" t="s">
+      <c r="A60" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" ht="14.25">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" ht="28.5">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15">
-      <c r="A63" t="s">
+    <row r="63" spans="1:6" ht="14.25">
+      <c r="A63" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25">
-      <c r="C64" s="6" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F64" t="s">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25">
-      <c r="C65" s="6" t="s">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F65" t="s">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25">
-      <c r="A66" t="s">
+      <c r="A66" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" ht="14.25">
-      <c r="A67" t="s">
+      <c r="A67" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" ht="14.25">
-      <c r="A68" t="s">
+      <c r="A68" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:F68">
@@ -2343,278 +2439,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D21" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" t="s">
-        <v>176</v>
-      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
